--- a/public/exports/PGPRO 01_2023_FFR.xlsx
+++ b/public/exports/PGPRO 01_2023_FFR.xlsx
@@ -230,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -256,11 +256,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -612,21 +607,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -646,7 +643,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -664,147 +661,147 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="6" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="23" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="6" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="6" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="6" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="6" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="6" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="6" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="21" fillId="2" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="6" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
